--- a/res/sources/test/Car Dealer.xlsx
+++ b/res/sources/test/Car Dealer.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M033423\VisualStudioCodeWS\dd\excel-checker\res\sources\test\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="41" windowWidth="15962" windowHeight="18082"/>
   </bookViews>
   <sheets>
-    <sheet name="New" sheetId="1" r:id="rId4"/>
+    <sheet name="New" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Tabella 1</t>
   </si>
@@ -39,14 +47,17 @@
   <si>
     <t>Mustanc</t>
   </si>
+  <si>
+    <t>Seller name</t>
+  </si>
+  <si>
+    <t>Alessio Confalonieri</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3">
     <font>
       <sz val="10"/>
@@ -59,7 +70,7 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
@@ -200,75 +211,134 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -467,7 +537,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -486,7 +556,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -516,7 +586,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -542,7 +612,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -568,7 +638,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -594,7 +664,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -620,7 +690,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -646,7 +716,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -672,7 +742,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -698,7 +768,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -724,7 +794,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -737,9 +807,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -756,7 +832,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -775,7 +851,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -801,7 +877,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -827,7 +903,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -853,7 +929,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -879,7 +955,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -905,7 +981,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -931,7 +1007,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -957,7 +1033,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -983,7 +1059,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1009,7 +1085,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1022,9 +1098,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1038,7 +1120,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1057,7 +1139,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1087,7 +1169,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1113,7 +1195,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1139,7 +1221,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1165,7 +1247,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1191,7 +1273,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1217,7 +1299,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1243,7 +1325,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1269,7 +1351,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1295,7 +1377,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1308,883 +1390,897 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:U35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.375" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="21" width="16.3516" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="22" width="16.375" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="16.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:21" ht="27.7" customHeight="1">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-    </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-    </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" t="s" s="10">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+    </row>
+    <row r="2" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+    </row>
+    <row r="3" spans="1:21" ht="20.25" customHeight="1">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+    </row>
+    <row r="4" spans="1:21" ht="20.05" customHeight="1">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+    </row>
+    <row r="5" spans="1:21" ht="20.05" customHeight="1">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+    </row>
+    <row r="6" spans="1:21" ht="20.05" customHeight="1">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+    </row>
+    <row r="7" spans="1:21" ht="20.05" customHeight="1">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" t="s" s="10">
+      <c r="D7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E7" t="s" s="10">
+      <c r="E7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F7" t="s" s="10">
+      <c r="F7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" t="s" s="10">
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+    </row>
+    <row r="8" spans="1:21" ht="20.05" customHeight="1">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>2003</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>150000</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <v>2</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" t="s" s="10">
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+    </row>
+    <row r="9" spans="1:21" ht="20.05" customHeight="1">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <v>2020</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>100000</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>1</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" t="s" s="10">
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+    </row>
+    <row r="10" spans="1:21" ht="20.05" customHeight="1">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <v>1990</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>50000</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <v>3</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" t="s" s="10">
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+    </row>
+    <row r="11" spans="1:21" ht="20.05" customHeight="1">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <v>1968</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>12000</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <v>1</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-    </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-    </row>
-    <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-    </row>
-    <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" s="7"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-    </row>
-    <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" s="7"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
-    </row>
-    <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" s="7"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="9"/>
-    </row>
-    <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" s="7"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="9"/>
-      <c r="U28" s="9"/>
-    </row>
-    <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" s="7"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="9"/>
-      <c r="U29" s="9"/>
-    </row>
-    <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" s="7"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="9"/>
-      <c r="U30" s="9"/>
-    </row>
-    <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" s="7"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
-      <c r="S31" s="9"/>
-      <c r="T31" s="9"/>
-      <c r="U31" s="9"/>
-    </row>
-    <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" s="7"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="9"/>
-      <c r="T32" s="9"/>
-      <c r="U32" s="9"/>
-    </row>
-    <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" s="7"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="9"/>
-      <c r="S33" s="9"/>
-      <c r="T33" s="9"/>
-      <c r="U33" s="9"/>
-    </row>
-    <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" s="7"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="9"/>
-      <c r="S34" s="9"/>
-      <c r="T34" s="9"/>
-      <c r="U34" s="9"/>
-    </row>
-    <row r="35" ht="20.05" customHeight="1">
-      <c r="A35" s="7"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="9"/>
-      <c r="S35" s="9"/>
-      <c r="T35" s="9"/>
-      <c r="U35" s="9"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+    </row>
+    <row r="12" spans="1:21" ht="20.05" customHeight="1">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+    </row>
+    <row r="13" spans="1:21" ht="20.05" customHeight="1">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+    </row>
+    <row r="14" spans="1:21" ht="20.05" customHeight="1">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+    </row>
+    <row r="15" spans="1:21" ht="20.05" customHeight="1">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+    </row>
+    <row r="16" spans="1:21" ht="20.05" customHeight="1">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+    </row>
+    <row r="17" spans="1:21" ht="20.05" customHeight="1">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+    </row>
+    <row r="18" spans="1:21" ht="20.05" customHeight="1">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+    </row>
+    <row r="19" spans="1:21" ht="20.05" customHeight="1">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+    </row>
+    <row r="20" spans="1:21" ht="20.05" customHeight="1">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+    </row>
+    <row r="21" spans="1:21" ht="20.05" customHeight="1">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+    </row>
+    <row r="22" spans="1:21" ht="20.05" customHeight="1">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+    </row>
+    <row r="23" spans="1:21" ht="20.05" customHeight="1">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+    </row>
+    <row r="24" spans="1:21" ht="20.05" customHeight="1">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+    </row>
+    <row r="25" spans="1:21" ht="20.05" customHeight="1">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+    </row>
+    <row r="26" spans="1:21" ht="20.05" customHeight="1">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+    </row>
+    <row r="27" spans="1:21" ht="20.05" customHeight="1">
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+    </row>
+    <row r="28" spans="1:21" ht="20.05" customHeight="1">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+    </row>
+    <row r="29" spans="1:21" ht="20.05" customHeight="1">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+    </row>
+    <row r="30" spans="1:21" ht="20.05" customHeight="1">
+      <c r="A30" s="6"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+    </row>
+    <row r="31" spans="1:21" ht="20.05" customHeight="1">
+      <c r="A31" s="6"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+    </row>
+    <row r="32" spans="1:21" ht="20.05" customHeight="1">
+      <c r="A32" s="6"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+    </row>
+    <row r="33" spans="1:21" ht="20.05" customHeight="1">
+      <c r="A33" s="6"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+    </row>
+    <row r="34" spans="1:21" ht="20.05" customHeight="1">
+      <c r="A34" s="6"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+    </row>
+    <row r="35" spans="1:21" ht="20.05" customHeight="1">
+      <c r="A35" s="6"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:U1"/>
   </mergeCells>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup scale="72" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/res/sources/test/Car Dealer.xlsx
+++ b/res/sources/test/Car Dealer.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="41" windowWidth="15962" windowHeight="18082"/>
+    <workbookView xWindow="0" yWindow="41" windowWidth="15962" windowHeight="18082" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="New" sheetId="1" r:id="rId1"/>
+    <sheet name="Old" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Tabella 1</t>
   </si>
@@ -53,12 +54,15 @@
   <si>
     <t>Alessio Confalonieri</t>
   </si>
+  <si>
+    <t>Old</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -71,6 +75,12 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <u/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
@@ -215,7 +225,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -251,6 +261,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1411,7 +1424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -2285,4 +2298,28 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.9"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3">
+      <c r="C53" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>